--- a/regions/8/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
+++ b/regions/8/mshenebloba/mshenebloba_dziritadi machveneblebi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -130,6 +130,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -511,18 +512,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
@@ -541,7 +540,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -558,7 +557,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="7">
         <v>2006</v>
@@ -605,8 +604,14 @@
       <c r="P3" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
@@ -655,8 +660,14 @@
       <c r="P4" s="8">
         <v>233.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="8">
+        <v>196.4</v>
+      </c>
+      <c r="R4" s="8">
+        <v>267.60000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
@@ -705,8 +716,14 @@
       <c r="P5" s="8">
         <v>241.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="8">
+        <v>200.3</v>
+      </c>
+      <c r="R5" s="8">
+        <v>295.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
@@ -755,8 +772,14 @@
       <c r="P6" s="13">
         <v>2835</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="13">
+        <v>2715</v>
+      </c>
+      <c r="R6" s="13">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>8</v>
       </c>
@@ -805,8 +828,14 @@
       <c r="P7" s="13">
         <v>2682</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="13">
+        <v>2309</v>
+      </c>
+      <c r="R7" s="13">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
@@ -855,8 +884,14 @@
       <c r="P8" s="8">
         <v>1230.9000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="8">
+        <v>1191.4000000000001</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1361.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>2</v>
       </c>
@@ -905,8 +940,14 @@
       <c r="P9" s="8">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="8">
+        <v>114.4</v>
+      </c>
+      <c r="R9" s="8">
+        <v>177.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
@@ -955,8 +996,14 @@
       <c r="P10" s="8">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="8">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="R10" s="8">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>3</v>
       </c>
@@ -1005,8 +1052,14 @@
       <c r="P11" s="8">
         <v>97.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="8">
+        <v>85.9</v>
+      </c>
+      <c r="R11" s="8">
+        <v>117.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>5</v>
       </c>
@@ -1055,8 +1108,14 @@
       <c r="P12" s="8">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q12" s="8">
+        <v>9</v>
+      </c>
+      <c r="R12" s="8">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>4</v>
       </c>
@@ -1105,8 +1164,14 @@
       <c r="P13" s="8">
         <v>144.69999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="8">
+        <v>114.9</v>
+      </c>
+      <c r="R13" s="8">
+        <v>178.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1123,7 +1188,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1140,7 +1205,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>10</v>
       </c>
